--- a/biology/Botanique/Dasypogon_(plante)/Dasypogon_(plante).xlsx
+++ b/biology/Botanique/Dasypogon_(plante)/Dasypogon_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Dasypogon est un genre  de plantes à fleurs appartenant à la famille des Dasypogonaceae.  Il comprend 4 espèces décrites et de celles-ci, seulement 3 acceptées [1]. Ces espèces sont toutes endémiques d'Australie-Occidentale.
+Dasypogon est un genre  de plantes à fleurs appartenant à la famille des Dasypogonaceae.  Il comprend 4 espèces décrites et de celles-ci, seulement 3 acceptées . Ces espèces sont toutes endémiques d'Australie-Occidentale.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par Robert Brown  et publié en Prodromus Florae Novae Hollandiae 263. 1810 [2]. L'espèce type est: Dasypogon bromeliifolius
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par Robert Brown  et publié en Prodromus Florae Novae Hollandiae 263. 1810 . L'espèce type est: Dasypogon bromeliifolius
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Espèces acceptées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ici une liste des espèces du genre Dasypogon acceptées en Aout 2023. 
 Dasypogon bromeliifolius
